--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Source Codes\Projects-Python\TextBaseEmotionDetectionWithEnsembleMethod\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Classifier</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>GU</t>
-  </si>
-  <si>
-    <t>RBM</t>
   </si>
   <si>
     <t>F1 Score</t>
@@ -200,6 +197,9 @@
     </r>
   </si>
   <si>
+    <t>Adaboost</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -209,7 +209,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RBM:</t>
+      <t>Adaboost:</t>
     </r>
     <r>
       <rPr>
@@ -219,7 +219,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Bernoulli Restricted Boltzmann Machine</t>
+      <t xml:space="preserve"> AdaBoost Classifier</t>
     </r>
   </si>
 </sst>
@@ -718,15 +718,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -858,7 +858,7 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RBM</c:v>
+                  <c:v>Adaboost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -876,13 +876,16 @@
                   <c:v>96.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>93.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +947,7 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RBM</c:v>
+                  <c:v>Adaboost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -962,13 +965,16 @@
                   <c:v>93.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>88.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +1036,7 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RBM</c:v>
+                  <c:v>Adaboost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1045,6 +1051,9 @@
                   <c:v>96.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -1113,7 +1122,7 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>RBM</c:v>
+                  <c:v>Adaboost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1128,6 +1137,9 @@
                   <c:v>92.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -2186,50 +2198,50 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -2246,7 +2258,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1">
@@ -2256,27 +2268,31 @@
         <v>93.89</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>96.99</v>
-      </c>
-      <c r="C6" s="1">
-        <v>94.16</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1">
@@ -2286,14 +2302,14 @@
         <v>88.32</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="1">
@@ -2310,11 +2326,15 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>95.27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>90.98</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -2326,7 +2346,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2334,7 +2354,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2342,7 +2362,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2350,7 +2370,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2358,7 +2378,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2375,16 +2395,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -12,14 +12,47 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="compare_original_with_tpe1" sheetId="1" r:id="rId1"/>
+    <sheet name="compare_original_with_tpe(100F)" sheetId="1" r:id="rId1"/>
+    <sheet name="compare_original_with_tpe(50F)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'compare_original_with_tpe(100F)'!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'compare_original_with_tpe(100F)'!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'compare_original_with_tpe(100F)'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'compare_original_with_tpe(100F)'!$C$4:$C$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'compare_original_with_tpe(100F)'!$D$4:$D$10</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'compare_original_with_tpe(100F)'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'compare_original_with_tpe(100F)'!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'compare_original_with_tpe(100F)'!$C$1:$C$3</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'compare_original_with_tpe(100F)'!$D$1:$D$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'compare_original_with_tpe(100F)'!$E$1:$E$3</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'compare_original_with_tpe(100F)'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'compare_original_with_tpe(50F)'!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'compare_original_with_tpe(50F)'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'compare_original_with_tpe(50F)'!$C$1:$C$3</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'compare_original_with_tpe(50F)'!$C$4:$C$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'compare_original_with_tpe(50F)'!$D$1:$D$3</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'compare_original_with_tpe(50F)'!$D$4:$D$10</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'compare_original_with_tpe(50F)'!$E$1:$E$3</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'compare_original_with_tpe(50F)'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'compare_original_with_tpe(100F)'!$C$1:$C$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'compare_original_with_tpe(100F)'!$C$4:$C$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'compare_original_with_tpe(100F)'!$D$1:$D$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'compare_original_with_tpe(100F)'!$D$4:$D$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'compare_original_with_tpe(100F)'!$E$1:$E$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'compare_original_with_tpe(100F)'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'compare_original_with_tpe(100F)'!$A$4:$A$10</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Classifier</t>
   </si>
@@ -106,29 +139,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> RF:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Random Forest</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>DT:</t>
     </r>
     <r>
@@ -166,37 +176,6 @@
     </r>
   </si>
   <si>
-    <t>100 Features by Document 2 Vector</t>
-  </si>
-  <si>
-    <r>
-      <t>96.99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>Ý</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>94.16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.499984740745262"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t>Ý</t>
-    </r>
-  </si>
-  <si>
     <t>Adaboost</t>
   </si>
   <si>
@@ -222,12 +201,59 @@
       <t xml:space="preserve"> AdaBoost Classifier</t>
     </r>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RF:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Random Forest</t>
+    </r>
+  </si>
+  <si>
+    <t>100 Features Extraction</t>
+  </si>
+  <si>
+    <t>50 Features Extraction</t>
+  </si>
+  <si>
+    <t>Classifiers</t>
+  </si>
+  <si>
+    <t>Emotions Classes</t>
+  </si>
+  <si>
+    <t>anger</t>
+  </si>
+  <si>
+    <t>happiness</t>
+  </si>
+  <si>
+    <t>satness</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,14 +388,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +569,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -665,6 +691,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -710,23 +751,33 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -812,11 +863,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$B$1:$B$3</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$B$1:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features by Document 2 Vector</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -839,9 +890,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$A$4:$A$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -859,16 +910,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare_original_with_tpe1!$B$4:$B$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$B$4:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>96.13</c:v>
                 </c:pt>
@@ -876,7 +930,7 @@
                   <c:v>96.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>93.76</c:v>
@@ -886,6 +940,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>95.27</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>95.97499999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,11 +958,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$C$1:$C$3</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$C$1:$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features by Document 2 Vector</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -928,9 +985,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$A$4:$A$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -948,16 +1005,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare_original_with_tpe1!$C$4:$C$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>92.55</c:v>
                 </c:pt>
@@ -965,7 +1025,7 @@
                   <c:v>93.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>88.32</c:v>
@@ -975,6 +1035,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>90.98</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>92.298333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,11 +1053,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$D$1:$D$3</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$D$1:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features by Document 2 Vector</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -1017,9 +1080,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$A$4:$A$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -1037,30 +1100,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare_original_with_tpe1!$D$4:$D$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>96.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>96.823333333333338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,11 +1148,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$E$1:$E$3</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$E$1:$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features by Document 2 Vector</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -1103,9 +1175,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>compare_original_with_tpe1!$A$4:$A$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -1123,30 +1195,39 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>compare_original_with_tpe1!$E$4:$E$9</c:f>
+              <c:f>'compare_original_with_tpe(100F)'!$E$4:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>92.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>93.84666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,7 +1280,530 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746213360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1746213360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746219184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$B$1:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50 Features Extraction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compare_original_with_tpe(50F)'!$B$4:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$C$1:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50 Features Extraction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compare_original_with_tpe(50F)'!$C$4:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$D$1:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50 Features Extraction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compare_original_with_tpe(50F)'!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$E$1:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>50 Features Extraction</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Adaboost</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'compare_original_with_tpe(50F)'!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1746219184"/>
+        <c:axId val="1746213360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1746219184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1354,7 +1958,411 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>Without TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>With TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
+          <cx:axisId val="1"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.23</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.18</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.27</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.29</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:v>Without TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:v>With TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
+          <cx:axisId val="1"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1897,20 +2905,1413 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1927,6 +4328,179 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2195,7 +4769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -2204,209 +4778,494 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="7">
         <v>96.13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="7">
         <v>92.55</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>96.13</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>92.55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>96.85</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="7">
         <v>93.89</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
+      <c r="D5" s="7">
+        <v>96.99</v>
+      </c>
+      <c r="E5" s="7">
+        <v>94.16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
+      <c r="B6" s="7">
+        <v>96.99</v>
+      </c>
+      <c r="C6" s="7">
+        <v>94.16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>96.99</v>
+      </c>
+      <c r="E6" s="7">
+        <v>94.16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="7">
         <v>93.76</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="7">
         <v>88.32</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
+      <c r="D7" s="7">
+        <v>96.99</v>
+      </c>
+      <c r="E7" s="7">
+        <v>94.16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>96.85</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>93.89</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>96.85</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>93.89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7">
         <v>95.27</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>90.98</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="7">
+        <v>96.99</v>
+      </c>
+      <c r="E9" s="7">
+        <v>94.16</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9">
+        <f>AVERAGE(B4:B9)</f>
+        <v>95.97499999999998</v>
+      </c>
+      <c r="C10" s="10">
+        <f>AVERAGE(C4:C9)</f>
+        <v>92.298333333333332</v>
+      </c>
+      <c r="D10" s="9">
+        <f>AVERAGE(D4:D9)</f>
+        <v>96.823333333333338</v>
+      </c>
+      <c r="E10" s="10">
+        <f>AVERAGE(E4:E9)</f>
+        <v>93.84666666666665</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="e">
+        <f>AVERAGE(B4:B9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C10" s="10" t="e">
+        <f t="shared" ref="C10:E10" si="0">AVERAGE(C4:C9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E10" s="10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:E18"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -12,47 +12,47 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="compare_original_with_tpe(100F)" sheetId="1" r:id="rId1"/>
-    <sheet name="compare_original_with_tpe(50F)" sheetId="3" r:id="rId2"/>
+    <sheet name="compare_original_with_tpe(3cl)" sheetId="1" r:id="rId1"/>
+    <sheet name="compare_original_with_tpe(2cl)" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'compare_original_with_tpe(100F)'!$A$4:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'compare_original_with_tpe(100F)'!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'compare_original_with_tpe(100F)'!$B$4:$B$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'compare_original_with_tpe(100F)'!$C$4:$C$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'compare_original_with_tpe(100F)'!$D$4:$D$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'compare_original_with_tpe(100F)'!$E$4:$E$10</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'compare_original_with_tpe(100F)'!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'compare_original_with_tpe(100F)'!$C$1:$C$3</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'compare_original_with_tpe(100F)'!$D$1:$D$3</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'compare_original_with_tpe(100F)'!$E$1:$E$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'compare_original_with_tpe(100F)'!$B$4:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'compare_original_with_tpe(50F)'!$A$4:$A$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'compare_original_with_tpe(50F)'!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'compare_original_with_tpe(50F)'!$B$4:$B$10</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'compare_original_with_tpe(50F)'!$C$1:$C$3</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'compare_original_with_tpe(50F)'!$C$4:$C$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'compare_original_with_tpe(50F)'!$D$1:$D$3</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'compare_original_with_tpe(50F)'!$D$4:$D$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'compare_original_with_tpe(50F)'!$E$1:$E$3</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'compare_original_with_tpe(50F)'!$E$4:$E$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'compare_original_with_tpe(100F)'!$C$1:$C$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'compare_original_with_tpe(100F)'!$C$4:$C$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'compare_original_with_tpe(100F)'!$D$1:$D$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'compare_original_with_tpe(100F)'!$D$4:$D$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'compare_original_with_tpe(100F)'!$E$1:$E$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'compare_original_with_tpe(100F)'!$E$4:$E$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'compare_original_with_tpe(100F)'!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'compare_original_with_tpe(3cl)'!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'compare_original_with_tpe(3cl)'!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'compare_original_with_tpe(3cl)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'compare_original_with_tpe(3cl)'!$B$5:$B$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'compare_original_with_tpe(3cl)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'compare_original_with_tpe(3cl)'!$C$5:$C$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'compare_original_with_tpe(3cl)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'compare_original_with_tpe(3cl)'!$D$5:$D$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'compare_original_with_tpe(3cl)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'compare_original_with_tpe(3cl)'!$E$5:$E$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'compare_original_with_tpe(3cl)'!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'compare_original_with_tpe(2cl)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'compare_original_with_tpe(2cl)'!$B$5:$B$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'compare_original_with_tpe(2cl)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'compare_original_with_tpe(2cl)'!$C$5:$C$11</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'compare_original_with_tpe(2cl)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'compare_original_with_tpe(2cl)'!$D$5:$D$11</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'compare_original_with_tpe(2cl)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'compare_original_with_tpe(2cl)'!$E$5:$E$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'compare_original_with_tpe(3cl)'!$C$1:$C$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'compare_original_with_tpe(3cl)'!$C$4:$C$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'compare_original_with_tpe(3cl)'!$D$1:$D$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'compare_original_with_tpe(3cl)'!$D$4:$D$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'compare_original_with_tpe(3cl)'!$E$1:$E$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'compare_original_with_tpe(3cl)'!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'compare_original_with_tpe(3cl)'!$A$5:$A$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Classifier</t>
   </si>
@@ -231,12 +231,6 @@
     <t>100 Features Extraction</t>
   </si>
   <si>
-    <t>50 Features Extraction</t>
-  </si>
-  <si>
-    <t>Classifiers</t>
-  </si>
-  <si>
     <t>Emotions Classes</t>
   </si>
   <si>
@@ -246,14 +240,47 @@
     <t>happiness</t>
   </si>
   <si>
-    <t>satness</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>1887 Instance</t>
+  </si>
+  <si>
+    <t>5320 Instance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Iteration For Hyper Parameter Optimization by TPE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +414,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="34">
@@ -576,7 +617,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -706,6 +747,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -751,7 +931,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -777,6 +957,112 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -863,7 +1149,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$B$1:$B$3</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -890,7 +1176,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -919,7 +1205,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(100F)'!$B$4:$B$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -958,7 +1244,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$C$1:$C$3</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -985,7 +1271,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1014,7 +1300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(100F)'!$C$4:$C$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1053,7 +1339,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$D$1:$D$3</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1080,7 +1366,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1109,7 +1395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(100F)'!$D$4:$D$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1148,7 +1434,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$E$1:$E$3</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1175,7 +1461,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(100F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1204,7 +1490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(100F)'!$E$4:$E$10</c:f>
+              <c:f>'compare_original_with_tpe(3cl)'!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1458,11 +1744,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$B$1:$B$3</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50 Features Extraction</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -1485,7 +1771,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1514,19 +1800,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(50F)'!$B$4:$B$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>16.515000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+              <c16:uniqueId val="{00000000-E001-4A01-B5AA-F4DE4AF96E4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1535,11 +1839,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$C$1:$C$3</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50 Features Extraction</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -1562,7 +1866,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1591,19 +1895,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(50F)'!$C$4:$C$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>16.368333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+              <c16:uniqueId val="{00000001-E001-4A01-B5AA-F4DE4AF96E4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1612,11 +1934,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$D$1:$D$3</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50 Features Extraction</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -1639,7 +1961,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1668,10 +1990,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(50F)'!$D$4:$D$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1680,7 +2020,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+              <c16:uniqueId val="{00000002-E001-4A01-B5AA-F4DE4AF96E4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1689,11 +2029,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$E$1:$E$3</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>50 Features Extraction</c:v>
+                  <c:v>100 Features Extraction</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -1716,7 +2056,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(50F)'!$A$4:$A$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1745,10 +2085,28 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(50F)'!$E$4:$E$10</c:f>
+              <c:f>'compare_original_with_tpe(2cl)'!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1757,7 +2115,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AFC4-4CDB-BDE9-4AA59D8BCB53}"/>
+              <c16:uniqueId val="{00000003-E001-4A01-B5AA-F4DE4AF96E4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1931,10 +2289,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1966,7 +2321,7 @@
         <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
@@ -1974,7 +2329,7 @@
         <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
@@ -1982,7 +2337,7 @@
         <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
@@ -1990,7 +2345,7 @@
         <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2000,7 +2355,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Without TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2013,7 +2368,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2026,7 +2381,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>With TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2039,7 +2394,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2105,7 +2460,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.23</cx:f>
@@ -2113,7 +2468,7 @@
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.25</cx:f>
@@ -2121,7 +2476,7 @@
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.27</cx:f>
@@ -2129,7 +2484,7 @@
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.29</cx:f>
@@ -4303,15 +4658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4333,15 +4688,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4406,15 +4761,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4438,15 +4793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
+      <xdr:colOff>314324</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4769,94 +5124,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>96.13</v>
-      </c>
-      <c r="C4" s="7">
-        <v>92.55</v>
-      </c>
-      <c r="D4" s="7">
-        <v>96.13</v>
-      </c>
-      <c r="E4" s="7">
-        <v>92.55</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>96.85</v>
+        <v>96.13</v>
       </c>
       <c r="C5" s="7">
-        <v>93.89</v>
+        <v>92.55</v>
       </c>
       <c r="D5" s="7">
-        <v>96.99</v>
+        <v>96.13</v>
       </c>
       <c r="E5" s="7">
-        <v>94.16</v>
+        <v>92.55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7">
-        <v>96.99</v>
+        <v>96.85</v>
       </c>
       <c r="C6" s="7">
-        <v>94.16</v>
+        <v>93.89</v>
       </c>
       <c r="D6" s="7">
         <v>96.99</v>
@@ -4867,13 +5214,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="7">
-        <v>93.76</v>
+        <v>96.99</v>
       </c>
       <c r="C7" s="7">
-        <v>88.32</v>
+        <v>94.16</v>
       </c>
       <c r="D7" s="7">
         <v>96.99</v>
@@ -4884,155 +5231,197 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>93.76</v>
+      </c>
+      <c r="C8" s="7">
+        <v>88.32</v>
+      </c>
+      <c r="D8" s="7">
+        <v>96.99</v>
+      </c>
+      <c r="E8" s="7">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B9" s="7">
         <v>96.85</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C9" s="7">
         <v>93.89</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>96.85</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>93.89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B10" s="7">
         <v>95.27</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C10" s="7">
         <v>90.98</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>96.99</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>94.16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9">
-        <f>AVERAGE(B4:B9)</f>
+      <c r="B11" s="9">
+        <f>AVERAGE(B5:B10)</f>
         <v>95.97499999999998</v>
       </c>
-      <c r="C10" s="10">
-        <f>AVERAGE(C4:C9)</f>
+      <c r="C11" s="10">
+        <f>AVERAGE(C5:C10)</f>
         <v>92.298333333333332</v>
       </c>
-      <c r="D10" s="9">
-        <f>AVERAGE(D4:D9)</f>
+      <c r="D11" s="9">
+        <f>AVERAGE(D5:D10)</f>
         <v>96.823333333333338</v>
       </c>
-      <c r="E10" s="10">
-        <f>AVERAGE(E4:E9)</f>
+      <c r="E11" s="10">
+        <f>AVERAGE(E5:E10)</f>
         <v>93.84666666666665</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
+  <mergeCells count="16">
+    <mergeCell ref="A26:D28"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5040,145 +5429,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="B5" s="7">
+        <v>99.09</v>
+      </c>
+      <c r="C5" s="18">
+        <v>98.21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="e">
-        <f>AVERAGE(B4:B9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C10" s="10" t="e">
-        <f t="shared" ref="C10:E10" si="0">AVERAGE(C4:C9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E10" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B11" s="9">
+        <f>AVERAGE(B5:B10)</f>
+        <v>16.515000000000001</v>
+      </c>
+      <c r="C11" s="10">
+        <f>AVERAGE(C5:C10)</f>
+        <v>16.368333333333332</v>
+      </c>
+      <c r="D11" s="9">
+        <f>AVERAGE(D5:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <f>AVERAGE(E5:E10)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5186,7 +5616,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5194,7 +5624,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5202,7 +5632,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5210,58 +5640,85 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="16">
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:D27"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -9,43 +9,43 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="compare_original_with_tpe(3cl)" sheetId="1" r:id="rId1"/>
-    <sheet name="compare_original_with_tpe(2cl)" sheetId="4" r:id="rId2"/>
+    <sheet name="original_3classes" sheetId="1" r:id="rId1"/>
+    <sheet name="original_3classes (2)" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'compare_original_with_tpe(3cl)'!$A$4:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'compare_original_with_tpe(3cl)'!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'compare_original_with_tpe(3cl)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'compare_original_with_tpe(3cl)'!$B$5:$B$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'compare_original_with_tpe(3cl)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'compare_original_with_tpe(3cl)'!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'compare_original_with_tpe(3cl)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'compare_original_with_tpe(3cl)'!$D$5:$D$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'compare_original_with_tpe(3cl)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'compare_original_with_tpe(3cl)'!$E$5:$E$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'compare_original_with_tpe(3cl)'!$B$4:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'compare_original_with_tpe(2cl)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'compare_original_with_tpe(2cl)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'compare_original_with_tpe(2cl)'!$B$5:$B$11</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'compare_original_with_tpe(2cl)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'compare_original_with_tpe(2cl)'!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'compare_original_with_tpe(2cl)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'compare_original_with_tpe(2cl)'!$D$5:$D$11</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'compare_original_with_tpe(2cl)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'compare_original_with_tpe(2cl)'!$E$5:$E$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'compare_original_with_tpe(3cl)'!$C$1:$C$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'compare_original_with_tpe(3cl)'!$C$4:$C$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'compare_original_with_tpe(3cl)'!$D$1:$D$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'compare_original_with_tpe(3cl)'!$D$4:$D$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'compare_original_with_tpe(3cl)'!$E$1:$E$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'compare_original_with_tpe(3cl)'!$E$4:$E$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'compare_original_with_tpe(3cl)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">original_3classes!$A$4:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">original_3classes!$B$1:$B$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">original_3classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">original_3classes!$B$5:$B$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">original_3classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">original_3classes!$C$5:$C$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">original_3classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">original_3classes!$D$5:$D$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">original_3classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">original_3classes!$E$5:$E$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">original_3classes!$B$4:$B$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'original_3classes (2)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'original_3classes (2)'!$B$5:$B$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'original_3classes (2)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'original_3classes (2)'!$C$5:$C$11</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'original_3classes (2)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'original_3classes (2)'!$D$5:$D$11</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'original_3classes (2)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'original_3classes (2)'!$E$5:$E$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">original_3classes!$C$1:$C$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">original_3classes!$C$4:$C$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">original_3classes!$D$1:$D$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">original_3classes!$D$4:$D$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">original_3classes!$E$1:$E$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">original_3classes!$E$4:$E$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">original_3classes!$A$5:$A$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -280,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,12 +422,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
     </font>
   </fonts>
   <fills count="34">
@@ -617,7 +611,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -742,15 +736,6 @@
       <top style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </bottom>
@@ -931,17 +916,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,14 +935,8 @@
     <xf numFmtId="2" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,10 +947,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,13 +956,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,8 +974,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1019,10 +986,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1034,10 +1001,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1047,23 +1014,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1139,7 +1103,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="4.0968354658676716E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.60447384990215391"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1149,7 +1123,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$B$2:$B$4</c:f>
+              <c:f>original_3classes!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1176,7 +1150,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1205,7 +1179,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$B$5:$B$11</c:f>
+              <c:f>original_3classes!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1244,7 +1218,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$C$2:$C$4</c:f>
+              <c:f>original_3classes!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1271,7 +1245,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1300,7 +1274,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$C$5:$C$11</c:f>
+              <c:f>original_3classes!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1339,7 +1313,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$D$2:$D$4</c:f>
+              <c:f>original_3classes!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1366,7 +1340,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1395,7 +1369,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$D$5:$D$11</c:f>
+              <c:f>original_3classes!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1434,7 +1408,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$E$2:$E$4</c:f>
+              <c:f>original_3classes!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1461,7 +1435,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1490,7 +1464,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(3cl)'!$E$5:$E$11</c:f>
+              <c:f>original_3classes!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1732,7 +1706,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1743,8 +1773,371 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Without TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$B$2:$B$4</c:f>
+              <c:f>original_3classes!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>original_3classes!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D72-4987-AE46-0FDA368A77CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>original_3classes!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>original_3classes!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D72-4987-AE46-0FDA368A77CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1632558751"/>
+        <c:axId val="1632564159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1632558751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632564159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1632564159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632558751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="4.0968354658676716E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.60447384990215391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'original_3classes (2)'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1771,7 +2164,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
+              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1800,37 +2193,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$B$5:$B$11</c:f>
+              <c:f>'original_3classes (2)'!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>99.09</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>16.515000000000001</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E001-4A01-B5AA-F4DE4AF96E4D}"/>
+              <c16:uniqueId val="{00000000-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1839,7 +2217,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$C$2:$C$4</c:f>
+              <c:f>'original_3classes (2)'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1866,7 +2244,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
+              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1895,37 +2273,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$C$5:$C$11</c:f>
+              <c:f>'original_3classes (2)'!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>98.21</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>16.368333333333332</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E001-4A01-B5AA-F4DE4AF96E4D}"/>
+              <c16:uniqueId val="{00000001-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1934,7 +2297,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$D$2:$D$4</c:f>
+              <c:f>'original_3classes (2)'!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1961,7 +2324,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
+              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1990,28 +2353,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$D$5:$D$11</c:f>
+              <c:f>'original_3classes (2)'!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2020,7 +2368,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E001-4A01-B5AA-F4DE4AF96E4D}"/>
+              <c16:uniqueId val="{00000002-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2029,7 +2377,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$E$2:$E$4</c:f>
+              <c:f>'original_3classes (2)'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2056,7 +2404,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$A$5:$A$11</c:f>
+              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2085,28 +2433,13 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'compare_original_with_tpe(2cl)'!$E$5:$E$11</c:f>
+              <c:f>'original_3classes (2)'!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2115,7 +2448,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E001-4A01-B5AA-F4DE4AF96E4D}"/>
+              <c16:uniqueId val="{00000003-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2236,6 +2569,391 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1746219184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Without TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'original_3classes (2)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'original_3classes (2)'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C33-4929-A074-DD7DBACC21B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'original_3classes (2)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'original_3classes (2)'!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C33-4929-A074-DD7DBACC21B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1632558751"/>
+        <c:axId val="1632564159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1632558751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632564159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1632564159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632558751"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2460,7 +3178,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.23</cx:f>
@@ -2468,7 +3186,7 @@
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.25</cx:f>
@@ -2476,7 +3194,7 @@
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.27</cx:f>
@@ -2484,7 +3202,7 @@
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.29</cx:f>
@@ -2757,6 +3475,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4209,6 +5007,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4649,6 +5950,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4657,16 +6461,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4687,16 +6491,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4753,6 +6557,36 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4760,16 +6594,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4792,16 +6626,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -4856,6 +6690,38 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5124,605 +6990,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>96.13</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>92.55</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>96.13</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>92.55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>96.85</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>93.89</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>96.99</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>94.16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>96.99</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>94.16</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>96.99</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>94.16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>93.76</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>88.32</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>96.99</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>94.16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>96.85</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>93.89</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>96.85</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>93.89</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>95.27</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>90.98</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>96.99</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>94.16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <f>AVERAGE(B5:B10)</f>
         <v>95.97499999999998</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <f>AVERAGE(C5:C10)</f>
         <v>92.298333333333332</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="6">
         <f>AVERAGE(D5:D10)</f>
         <v>96.823333333333338</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <f>AVERAGE(E5:E10)</f>
         <v>93.84666666666665</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
+      <c r="A15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="A16" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
+      <c r="A17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="37"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
+      <c r="A21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="A22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A26:D28"/>
+  <mergeCells count="11">
+    <mergeCell ref="A25:D27"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>99.09</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="4">
         <v>98.21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <f>AVERAGE(B5:B10)</f>
-        <v>16.515000000000001</v>
-      </c>
-      <c r="C11" s="10">
+        <v>99.09</v>
+      </c>
+      <c r="C11" s="7">
         <f>AVERAGE(C5:C10)</f>
-        <v>16.368333333333332</v>
-      </c>
-      <c r="D11" s="9">
+        <v>98.21</v>
+      </c>
+      <c r="D11" s="6">
         <f>AVERAGE(D5:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <f>AVERAGE(E5:E10)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:E19"/>
+  <mergeCells count="10">
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -228,10 +228,7 @@
     </r>
   </si>
   <si>
-    <t>100 Features Extraction</t>
-  </si>
-  <si>
-    <t>Emotions Classes</t>
+    <t>100 Features</t>
   </si>
   <si>
     <t>anger</t>
@@ -274,6 +271,9 @@
       </rPr>
       <t xml:space="preserve"> Iteration For Hyper Parameter Optimization by TPE</t>
     </r>
+  </si>
+  <si>
+    <t>Emotion Classes</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1127,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -1222,7 +1222,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -1317,7 +1317,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -1412,7 +1412,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -1785,6 +1785,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>original_3classes!$A$5:$A$9</c:f>
@@ -1854,6 +1912,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>original_3classes!$A$5:$A$9</c:f>
@@ -2096,7 +2212,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2141,7 +2257,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -2221,7 +2337,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Without TPE</c:v>
@@ -2301,7 +2417,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -2358,10 +2474,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,7 +2497,7 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 Features Extraction</c:v>
+                  <c:v>100 Features</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>With TPE</c:v>
@@ -2438,10 +2554,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2826,7 +2942,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3026,7 +3142,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6559,7 +6675,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -6694,7 +6810,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -6993,14 +7109,14 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="A13" sqref="A13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7220,7 +7336,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7228,7 +7344,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -7236,7 +7352,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -7244,7 +7360,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -7252,7 +7368,7 @@
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -7271,7 +7387,7 @@
       <c r="D27" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
     <mergeCell ref="A25:D27"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
@@ -7279,10 +7395,15 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7294,15 +7415,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7357,10 +7478,10 @@
         <v>98.21</v>
       </c>
       <c r="D5" s="4">
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>98.21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7422,11 +7543,11 @@
       </c>
       <c r="D11" s="6">
         <f>AVERAGE(D5:D10)</f>
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="E11" s="7">
         <f>AVERAGE(E5:E10)</f>
-        <v>0</v>
+        <v>98.21</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7482,7 +7603,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7490,7 +7611,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -7498,7 +7619,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -7506,7 +7627,7 @@
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -7525,17 +7646,22 @@
       <c r="D26" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A24:D26"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -2316,8 +2316,11 @@
                 <c:pt idx="0">
                   <c:v>99.09</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.05</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>99.09</c:v>
+                  <c:v>99.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,8 +2399,11 @@
                 <c:pt idx="0">
                   <c:v>98.21</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.11</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>98.21</c:v>
+                  <c:v>98.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,8 +2482,11 @@
                 <c:pt idx="0">
                   <c:v>99.09</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.05</c:v>
+                </c:pt>
                 <c:pt idx="6" formatCode="0.00">
-                  <c:v>99.09</c:v>
+                  <c:v>99.07</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,6 +2563,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00">
@@ -2887,6 +2899,9 @@
                 <c:pt idx="0">
                   <c:v>98.21</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2942,6 +2957,9 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
@@ -7109,7 +7127,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7416,7 +7434,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7488,10 +7506,18 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4">
+        <v>99.05</v>
+      </c>
+      <c r="C6" s="4">
+        <v>98.11</v>
+      </c>
+      <c r="D6" s="4">
+        <v>99.05</v>
+      </c>
+      <c r="E6" s="4">
+        <v>98.21</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -7535,15 +7561,15 @@
       </c>
       <c r="B11" s="6">
         <f>AVERAGE(B5:B10)</f>
-        <v>99.09</v>
+        <v>99.07</v>
       </c>
       <c r="C11" s="7">
         <f>AVERAGE(C5:C10)</f>
-        <v>98.21</v>
+        <v>98.16</v>
       </c>
       <c r="D11" s="6">
         <f>AVERAGE(D5:D10)</f>
-        <v>99.09</v>
+        <v>99.07</v>
       </c>
       <c r="E11" s="7">
         <f>AVERAGE(E5:E10)</f>

--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -9,50 +9,51 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="original_3classes" sheetId="1" r:id="rId1"/>
-    <sheet name="original_3classes (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="original_2classes" sheetId="5" r:id="rId2"/>
+    <sheet name="ensemble_2classes" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">original_3classes!$A$4:$A$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">original_3classes!$B$1:$B$3</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">original_3classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">original_3classes!$B$5:$B$11</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">original_3classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">original_3classes!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">original_3classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">original_3classes!$D$5:$D$11</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">original_3classes!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">original_3classes!$E$5:$E$11</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">original_3classes!$B$4:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'original_3classes (2)'!$A$5:$A$11</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'original_3classes (2)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'original_3classes (2)'!$B$5:$B$11</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'original_3classes (2)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'original_3classes (2)'!$C$5:$C$11</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'original_3classes (2)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'original_3classes (2)'!$D$5:$D$11</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'original_3classes (2)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'original_3classes (2)'!$E$5:$E$11</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">original_3classes!$C$1:$C$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">original_3classes!$C$4:$C$10</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">original_3classes!$D$1:$D$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">original_3classes!$D$4:$D$10</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">original_3classes!$E$1:$E$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">original_3classes!$E$4:$E$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">original_3classes!$A$5:$A$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">original_3classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">original_3classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">original_2classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">original_2classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">original_2classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">original_2classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">original_2classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">original_2classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">original_2classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">original_2classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">original_3classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">ensemble_2classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">ensemble_2classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">ensemble_2classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">ensemble_2classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">ensemble_2classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">ensemble_2classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">ensemble_2classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">ensemble_2classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">original_3classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">original_3classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">original_3classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">original_3classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">original_3classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">original_3classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">original_2classes!$A$5:$A$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>Classifier</t>
   </si>
@@ -176,32 +177,6 @@
     </r>
   </si>
   <si>
-    <t>Adaboost</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adaboost:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AdaBoost Classifier</t>
-    </r>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -274,6 +249,136 @@
   </si>
   <si>
     <t>Emotion Classes</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Group5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DT, GU, KNN, RF, SVM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DT, GU, KNN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KNN, RF, SVM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GU, RF, SVM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Group5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KNN, GU, SVM</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -611,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -871,6 +976,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -916,11 +1084,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,8 +1100,18 @@
     <xf numFmtId="2" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,32 +1122,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1001,23 +1164,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1027,6 +1189,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1150,9 +1336,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_3classes!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -1169,9 +1355,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1179,10 +1362,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_3classes!$B$5:$B$11</c:f>
+              <c:f>original_3classes!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>96.13</c:v>
                 </c:pt>
@@ -1198,11 +1381,8 @@
                 <c:pt idx="4">
                   <c:v>96.85</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>95.27</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>95.97499999999998</c:v>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>96.115999999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1245,9 +1425,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_3classes!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -1264,9 +1444,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1274,10 +1451,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_3classes!$C$5:$C$11</c:f>
+              <c:f>original_3classes!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>92.55</c:v>
                 </c:pt>
@@ -1293,11 +1470,8 @@
                 <c:pt idx="4">
                   <c:v>93.89</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>90.98</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>92.298333333333332</c:v>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>92.561999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,9 +1514,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_3classes!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -1359,9 +1533,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1369,10 +1540,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_3classes!$D$5:$D$11</c:f>
+              <c:f>original_3classes!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>96.13</c:v>
                 </c:pt>
@@ -1388,11 +1559,8 @@
                 <c:pt idx="4">
                   <c:v>96.85</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>96.99</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>96.823333333333338</c:v>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>96.79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,9 +1603,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_3classes!$A$5:$A$11</c:f>
+              <c:f>original_3classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -1454,9 +1622,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -1464,10 +1629,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_3classes!$E$5:$E$11</c:f>
+              <c:f>original_3classes!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>92.55</c:v>
                 </c:pt>
@@ -1483,11 +1648,8 @@
                 <c:pt idx="4">
                   <c:v>93.89</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>94.16</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>93.84666666666665</c:v>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>93.783999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2253,7 +2415,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$B$2:$B$4</c:f>
+              <c:f>original_2classes!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2280,9 +2442,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -2299,9 +2461,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2309,18 +2468,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'original_3classes (2)'!$B$5:$B$11</c:f>
+              <c:f>original_2classes!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>99.05</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>99.07</c:v>
+                <c:pt idx="2">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.11</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>97.664000000000016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2336,7 +2504,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$C$2:$C$4</c:f>
+              <c:f>original_2classes!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2363,9 +2531,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -2382,9 +2550,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2392,18 +2557,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'original_3classes (2)'!$C$5:$C$11</c:f>
+              <c:f>original_2classes!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>98.11</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>98.16</c:v>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>95.554000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2419,7 +2593,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$D$2:$D$4</c:f>
+              <c:f>original_2classes!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2446,9 +2620,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -2465,9 +2639,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2475,18 +2646,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'original_3classes (2)'!$D$5:$D$11</c:f>
+              <c:f>original_2classes!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>99.05</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00">
-                  <c:v>99.07</c:v>
+                <c:pt idx="2">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>99.074000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2502,7 +2682,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$E$2:$E$4</c:f>
+              <c:f>original_2classes!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2529,9 +2709,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$A$5:$A$11</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>SVM</c:v>
                 </c:pt>
@@ -2548,9 +2728,6 @@
                   <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Adaboost</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
@@ -2558,17 +2735,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'original_3classes (2)'!$E$5:$E$11</c:f>
+              <c:f>original_2classes!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>98.21</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00">
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
@@ -2869,7 +3055,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$A$5:$A$9</c:f>
+              <c:f>original_2classes!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2892,7 +3078,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'original_3classes (2)'!$C$5:$C$9</c:f>
+              <c:f>original_2classes!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2901,6 +3087,15 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>98.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,7 +3124,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'original_3classes (2)'!$A$5:$A$9</c:f>
+              <c:f>original_2classes!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2952,7 +3147,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'original_3classes (2)'!$E$5:$E$9</c:f>
+              <c:f>original_2classes!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2960,6 +3155,15 @@
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
@@ -3165,7 +3369,1067 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="4.0968354658676716E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.60447384990215391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$D$2:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1746219184"/>
+        <c:axId val="1746213360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1746219184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746213360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1746213360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746219184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Without TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB7-497D-88C7-7C7D178687C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDB7-497D-88C7-7C7D178687C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1632558751"/>
+        <c:axId val="1632564159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1632558751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632564159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1632564159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632558751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Without TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>With TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
+          <cx:axisId val="1"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -3307,7 +4571,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -3320,7 +4584,7 @@
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.25</cx:f>
@@ -3336,7 +4600,7 @@
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.29</cx:f>
@@ -3689,6 +4953,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6089,6 +7473,1457 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6603,8 +9438,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6627,13 +9462,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6695,13 +9530,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6736,8 +9571,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6762,13 +9597,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6829,14 +9664,151 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7124,304 +10096,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>96.13</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>92.55</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>96.13</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>92.55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>96.85</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>93.89</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>96.99</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>94.16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>96.99</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>94.16</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>96.99</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>94.16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>93.76</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>88.32</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>96.99</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>94.16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>96.85</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>93.89</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>96.85</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>93.89</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4">
-        <v>95.27</v>
-      </c>
-      <c r="C10" s="4">
-        <v>90.98</v>
-      </c>
-      <c r="D10" s="4">
-        <v>96.99</v>
-      </c>
-      <c r="E10" s="4">
-        <v>94.16</v>
+      <c r="B10" s="5">
+        <f>AVERAGE(B5:B9)</f>
+        <v>96.115999999999985</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>92.561999999999998</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>96.79</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>93.783999999999992</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6">
-        <f>AVERAGE(B5:B10)</f>
-        <v>95.97499999999998</v>
-      </c>
-      <c r="C11" s="7">
-        <f>AVERAGE(C5:C10)</f>
-        <v>92.298333333333332</v>
-      </c>
-      <c r="D11" s="6">
-        <f>AVERAGE(D5:D10)</f>
-        <v>96.823333333333338</v>
-      </c>
-      <c r="E11" s="7">
-        <f>AVERAGE(E5:E10)</f>
-        <v>93.84666666666665</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="30"/>
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A25:D27"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A18:D18"/>
+  <mergeCells count="15">
+    <mergeCell ref="A23:D25"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7431,252 +10377,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>99.09</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>98.21</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>99.09</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>98.21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>99.05</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>98.11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>99.05</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>98.21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C7" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E7" s="3">
+        <v>98.21</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="3">
+        <v>97.98</v>
+      </c>
+      <c r="C8" s="3">
+        <v>96.04</v>
+      </c>
+      <c r="D8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98.21</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="3">
+        <v>93.11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>99.05</v>
+      </c>
+      <c r="E9" s="3">
+        <v>98.21</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5">
+        <f>AVERAGE(B5:B9)</f>
+        <v>97.664000000000016</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>95.554000000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>99.074000000000012</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>98.21</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="6">
-        <f>AVERAGE(B5:B10)</f>
-        <v>99.07</v>
-      </c>
-      <c r="C11" s="7">
-        <f>AVERAGE(C5:C10)</f>
-        <v>98.16</v>
-      </c>
-      <c r="D11" s="6">
-        <f>AVERAGE(D5:D10)</f>
-        <v>99.07</v>
-      </c>
-      <c r="E11" s="7">
-        <f>AVERAGE(E5:E10)</f>
-        <v>98.21</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
+      <c r="A16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="30"/>
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
+      <c r="A20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D26"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
@@ -7686,8 +10640,291 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <f>AVERAGE(B5:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="original_3classes" sheetId="1" r:id="rId1"/>
     <sheet name="original_2classes" sheetId="5" r:id="rId2"/>
-    <sheet name="ensemble_2classes" sheetId="6" r:id="rId3"/>
+    <sheet name="ensemble_3classes" sheetId="7" r:id="rId3"/>
+    <sheet name="ensemble_2classes" sheetId="6" r:id="rId4"/>
+    <sheet name="ensemble_2classes (2)" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">original_3classes!$A$5:$A$10</definedName>
@@ -27,22 +29,46 @@
     <definedName name="_xlchart.v1.15" hidden="1">original_2classes!$D$5:$D$10</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">original_2classes!$E$2:$E$4</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">original_2classes!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">original_3classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">ensemble_2classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">ensemble_2classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">ensemble_2classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">ensemble_2classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">ensemble_2classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">ensemble_2classes!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">ensemble_2classes!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">ensemble_2classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">ensemble_3classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">ensemble_3classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">ensemble_3classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">ensemble_3classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">ensemble_3classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">ensemble_3classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">ensemble_3classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">ensemble_3classes!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">original_3classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">ensemble_2classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">ensemble_2classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">ensemble_2classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">ensemble_2classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">ensemble_2classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">ensemble_2classes!$D$5:$D$10</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">original_3classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">ensemble_2classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">ensemble_2classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'ensemble_2classes (2)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'ensemble_2classes (2)'!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'ensemble_2classes (2)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'ensemble_2classes (2)'!$C$5:$C$10</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">original_3classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'ensemble_2classes (2)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'ensemble_2classes (2)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'ensemble_2classes (2)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'ensemble_2classes (2)'!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">original_3classes!$D$5:$D$10</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">original_3classes!$E$2:$E$4</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">original_3classes!$E$5:$E$10</definedName>
@@ -53,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t>Classifier</t>
   </si>
@@ -379,6 +405,12 @@
       </rPr>
       <t xml:space="preserve"> KNN, GU, SVM</t>
     </r>
+  </si>
+  <si>
+    <t>Weighted Average Probabilities</t>
+  </si>
+  <si>
+    <t>Majority Class Labels</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1116,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1206,14 +1238,17 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1850,6 +1885,406 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Without TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes (2)'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85CE-4D07-9553-8836CF7F429D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes (2)'!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-85CE-4D07-9553-8836CF7F429D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1632558751"/>
+        <c:axId val="1632564159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1632558751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632564159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1632564159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632558751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3405,7 +3840,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$B$2:$B$4</c:f>
+              <c:f>ensemble_3classes!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3432,7 +3867,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3458,14 +3893,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$B$5:$B$10</c:f>
+              <c:f>ensemble_3classes!$B$5:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00">
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3473,7 +3914,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000000-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3482,7 +3923,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$C$2:$C$4</c:f>
+              <c:f>ensemble_3classes!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3509,7 +3950,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3535,13 +3976,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$C$5:$C$10</c:f>
+              <c:f>ensemble_3classes!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3550,7 +3997,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000001-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3559,7 +4006,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$D$2:$D$4</c:f>
+              <c:f>ensemble_3classes!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3586,7 +4033,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3612,13 +4059,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$D$5:$D$10</c:f>
+              <c:f>ensemble_3classes!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3627,7 +4080,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000002-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3636,7 +4089,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$E$2:$E$4</c:f>
+              <c:f>ensemble_3classes!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3663,7 +4116,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3689,13 +4142,19 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$E$5:$E$10</c:f>
+              <c:f>ensemble_3classes!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3704,7 +4163,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000003-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3997,6 +4456,966 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
+              <c:f>ensemble_3classes!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_3classes!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B4AD-40F8-9195-DECF93D862EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_3classes!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_3classes!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B4AD-40F8-9195-DECF93D862EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1632558751"/>
+        <c:axId val="1632564159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1632558751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632564159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1632564159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632558751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="4.0968354658676716E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.60447384990215391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.042500000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>98.114999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$D$2:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>99.089999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ensemble_2classes!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ensemble_2classes!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F5BA-4867-8951-532E2EF147FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1746219184"/>
+        <c:axId val="1746213360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1746219184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746213360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1746213360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746219184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Without TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
               <c:f>ensemble_2classes!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
@@ -4025,7 +5444,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,7 +5510,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,6 +5717,569 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="4.0968354658676716E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.60447384990215391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes (2)'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.042500000000018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes (2)'!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>98.114999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$D$2:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes (2)'!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>99.089999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes (2)'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1746219184"/>
+        <c:axId val="1746213360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1746219184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746213360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1746213360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746219184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4576,7 +6573,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.23</cx:f>
@@ -4592,7 +6589,7 @@
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.27</cx:f>
@@ -4713,7 +6710,531 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.30</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.32</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.41</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>Without TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>With TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
+          <cx:axisId val="1"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.42</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.47</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.43</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.49</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.44</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.45</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.53</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.46</cx:f>
+              <cx:v>Without TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.48</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.50</cx:f>
+              <cx:v>With TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.52</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
+          <cx:axisId val="1"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5074,6 +7595,2908 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9808,7 +15231,281 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10379,8 +16076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10649,10 +16346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10724,19 +16421,35 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="46">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -10865,53 +16578,376 @@
       <c r="D24" s="28"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C5" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E5" s="3">
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="46">
+        <v>98.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>97.83</v>
+      </c>
+      <c r="D6" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E6" s="3">
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C7" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E7" s="3">
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C8" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <f>AVERAGE(B5:B9)</f>
+        <v>99.042500000000018</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>98.114999999999995</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>99.089999999999989</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A26:D26"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A22:D24"/>
@@ -10930,4 +16966,318 @@
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C5" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E5" s="3">
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="46">
+        <v>98.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>97.83</v>
+      </c>
+      <c r="D6" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E6" s="3">
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C7" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E7" s="3">
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C8" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <f>AVERAGE(B5:B9)</f>
+        <v>99.042500000000018</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>98.114999999999995</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>99.089999999999989</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>98.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -9,77 +9,90 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="original_3classes" sheetId="1" r:id="rId1"/>
-    <sheet name="original_2classes" sheetId="5" r:id="rId2"/>
-    <sheet name="ensemble_3classes" sheetId="7" r:id="rId3"/>
-    <sheet name="ensemble_2classes" sheetId="6" r:id="rId4"/>
-    <sheet name="ensemble_2classes (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="ensemble_3classes(soft)" sheetId="7" r:id="rId2"/>
+    <sheet name="ensemble_3classes(hard)" sheetId="9" r:id="rId3"/>
+    <sheet name="original_2classes" sheetId="5" r:id="rId4"/>
+    <sheet name="ensemble_2classes(soft)" sheetId="6" r:id="rId5"/>
+    <sheet name="ensemble_2classes(hard)" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">original_3classes!$A$5:$A$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">original_3classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">original_2classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">original_2classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">original_2classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">original_2classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">original_2classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">original_2classes!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">original_2classes!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">original_2classes!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'ensemble_3classes(soft)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'ensemble_3classes(soft)'!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'ensemble_3classes(soft)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'ensemble_3classes(soft)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'ensemble_3classes(soft)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'ensemble_3classes(soft)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'ensemble_3classes(soft)'!$E$2:$E$4</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">original_3classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">ensemble_3classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">ensemble_3classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">ensemble_3classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">ensemble_3classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">ensemble_3classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">ensemble_3classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">ensemble_3classes!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">ensemble_3classes!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">ensemble_3classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'ensemble_3classes(soft)'!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'ensemble_3classes(hard)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'ensemble_3classes(hard)'!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'ensemble_3classes(hard)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'ensemble_3classes(hard)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'ensemble_3classes(hard)'!$D$2:$D$4</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">original_3classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">ensemble_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">ensemble_2classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">ensemble_2classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">ensemble_2classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">ensemble_2classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">ensemble_2classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">ensemble_2classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'ensemble_3classes(hard)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'ensemble_3classes(hard)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'ensemble_3classes(hard)'!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">original_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">original_2classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">original_2classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">original_2classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">original_2classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">original_2classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">original_2classes!$D$5:$D$10</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">original_3classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">ensemble_2classes!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">ensemble_2classes!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'ensemble_2classes (2)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'ensemble_2classes (2)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'ensemble_2classes (2)'!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'ensemble_2classes (2)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'ensemble_2classes (2)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">original_2classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">original_2classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'ensemble_2classes(soft)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'ensemble_2classes(soft)'!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'ensemble_2classes(soft)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'ensemble_2classes(soft)'!$C$5:$C$10</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">original_3classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'ensemble_2classes (2)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'ensemble_2classes (2)'!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'ensemble_2classes (2)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'ensemble_2classes (2)'!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'ensemble_2classes(soft)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'ensemble_2classes(soft)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'ensemble_2classes(soft)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'ensemble_2classes(soft)'!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">'ensemble_2classes(hard)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">'ensemble_2classes(hard)'!$B$5:$B$10</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">original_3classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">'ensemble_2classes(hard)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">'ensemble_2classes(hard)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">'ensemble_2classes(hard)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">'ensemble_2classes(hard)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">'ensemble_2classes(hard)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">'ensemble_2classes(hard)'!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">original_3classes!$E$2:$E$4</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">original_3classes!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">original_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="39">
   <si>
     <t>Classifier</t>
   </si>
@@ -411,6 +424,12 @@
   </si>
   <si>
     <t>Majority Class Labels</t>
+  </si>
+  <si>
+    <t>Weight = F1 Score</t>
+  </si>
+  <si>
+    <t>Voter With Weight = F1 Score</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +2003,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$A$5:$A$9</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2007,7 +2026,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_2classes (2)'!$C$5:$C$9</c:f>
+              <c:f>'ensemble_2classes(soft)'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2022,6 +2041,978 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDB7-497D-88C7-7C7D178687C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>With TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes(soft)'!$E$5:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDB7-497D-88C7-7C7D178687C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1632558751"/>
+        <c:axId val="1632564159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1632558751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632564159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1632564159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1632558751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.7136482939632549E-2"/>
+          <c:y val="4.0968354658676716E-2"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.60447384990215391"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$B$2:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes(hard)'!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$C$2:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Without TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes(hard)'!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$D$2:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1 Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes(hard)'!$D$5:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$E$2:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>100 Features</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>With TPE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes(hard)'!$E$5:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-11EE-4838-B269-37AF8969A067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1746219184"/>
+        <c:axId val="1746213360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1746219184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746213360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1746213360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1746219184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Without TPE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ensemble_2classes(hard)'!$A$5:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Group2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Group3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Group4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ensemble_2classes(hard)'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,7 +3041,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$A$5:$A$9</c:f>
+              <c:f>'ensemble_2classes(hard)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2073,18 +3064,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_2classes (2)'!$E$5:$E$9</c:f>
+              <c:f>'ensemble_2classes(hard)'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,7 +3841,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$B$2:$B$4</c:f>
+              <c:f>'ensemble_3classes(soft)'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2877,23 +3868,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -2903,34 +3894,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$B$5:$B$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$B$5:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>99.09</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.11</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>97.664000000000016</c:v>
+                  <c:v>96.71</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.933999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000000-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2939,7 +3930,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$C$2:$C$4</c:f>
+              <c:f>'ensemble_3classes(soft)'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2966,23 +3957,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -2992,34 +3983,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$C$5:$C$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.11</c:v>
+                  <c:v>93.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.04</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.2</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>95.554000000000002</c:v>
+                  <c:v>94.054000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000001-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3028,7 +4019,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$D$2:$D$4</c:f>
+              <c:f>'ensemble_3classes(soft)'!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3055,23 +4046,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -3081,34 +4072,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$D$5:$D$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>99.09</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.05</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.09</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.09</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.05</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>99.074000000000012</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000002-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3117,7 +4108,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$E$2:$E$4</c:f>
+              <c:f>'ensemble_3classes(soft)'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3144,23 +4135,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -3170,34 +4161,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$E$5:$E$10</c:f>
+              <c:f>'ensemble_3classes(soft)'!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000003-4DB7-4A28-B80E-150F5144F9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3490,54 +4481,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$9</c:f>
+              <c:f>'ensemble_3classes(soft)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$C$5:$C$9</c:f>
+              <c:f>'ensemble_3classes(soft)'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.11</c:v>
+                  <c:v>93.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.04</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.2</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C33-4929-A074-DD7DBACC21B3}"/>
+              <c16:uniqueId val="{00000000-B4AD-40F8-9195-DECF93D862EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3559,54 +4550,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$9</c:f>
+              <c:f>'ensemble_3classes(soft)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$E$5:$E$9</c:f>
+              <c:f>'ensemble_3classes(soft)'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.21</c:v>
+                  <c:v>94.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C33-4929-A074-DD7DBACC21B3}"/>
+              <c16:uniqueId val="{00000001-B4AD-40F8-9195-DECF93D862EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3840,7 +4831,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_3classes!$B$2:$B$4</c:f>
+              <c:f>'ensemble_3classes(hard)'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3867,7 +4858,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3893,7 +4884,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_3classes!$B$5:$B$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3914,7 +4905,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DB7-4A28-B80E-150F5144F9FE}"/>
+              <c16:uniqueId val="{00000000-FE3E-4878-9DBA-B6F388A1FF22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3923,7 +4914,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_3classes!$C$2:$C$4</c:f>
+              <c:f>'ensemble_3classes(hard)'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3950,7 +4941,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -3976,7 +4967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_3classes!$C$5:$C$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3997,7 +4988,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DB7-4A28-B80E-150F5144F9FE}"/>
+              <c16:uniqueId val="{00000001-FE3E-4878-9DBA-B6F388A1FF22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4006,7 +4997,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_3classes!$D$2:$D$4</c:f>
+              <c:f>'ensemble_3classes(hard)'!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4033,7 +5024,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4059,7 +5050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_3classes!$D$5:$D$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4080,7 +5071,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4DB7-4A28-B80E-150F5144F9FE}"/>
+              <c16:uniqueId val="{00000002-FE3E-4878-9DBA-B6F388A1FF22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4089,7 +5080,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_3classes!$E$2:$E$4</c:f>
+              <c:f>'ensemble_3classes(hard)'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4116,7 +5107,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_3classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4142,7 +5133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_3classes!$E$5:$E$10</c:f>
+              <c:f>'ensemble_3classes(hard)'!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4163,7 +5154,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4DB7-4A28-B80E-150F5144F9FE}"/>
+              <c16:uniqueId val="{00000003-FE3E-4878-9DBA-B6F388A1FF22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4456,7 +5447,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_3classes!$A$5:$A$9</c:f>
+              <c:f>'ensemble_3classes(hard)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4479,7 +5470,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_3classes!$C$5:$C$9</c:f>
+              <c:f>'ensemble_3classes(hard)'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4497,7 +5488,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B4AD-40F8-9195-DECF93D862EC}"/>
+              <c16:uniqueId val="{00000000-C28E-4314-B3B8-9FD9FBC5335F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4519,7 +5510,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_3classes!$A$5:$A$9</c:f>
+              <c:f>'ensemble_3classes(hard)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4542,7 +5533,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_3classes!$E$5:$E$9</c:f>
+              <c:f>'ensemble_3classes(hard)'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4560,7 +5551,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B4AD-40F8-9195-DECF93D862EC}"/>
+              <c16:uniqueId val="{00000001-C28E-4314-B3B8-9FD9FBC5335F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4794,7 +5785,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$B$2:$B$4</c:f>
+              <c:f>original_2classes!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4821,23 +5812,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -4847,31 +5838,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$B$5:$B$10</c:f>
+              <c:f>original_2classes!$B$5:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.9</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>99.09</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.042500000000018</c:v>
+                <c:pt idx="3">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.11</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>97.664000000000016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000000-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4880,7 +5874,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$C$2:$C$4</c:f>
+              <c:f>original_2classes!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4907,23 +5901,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -4933,7 +5927,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$C$5:$C$10</c:f>
+              <c:f>original_2classes!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4941,23 +5935,26 @@
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.83</c:v>
+                  <c:v>98.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.21</c:v>
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.2</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>98.114999999999995</c:v>
+                  <c:v>95.554000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000001-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4966,7 +5963,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$D$2:$D$4</c:f>
+              <c:f>original_2classes!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4993,23 +5990,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -5019,7 +6016,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$D$5:$D$10</c:f>
+              <c:f>original_2classes!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5027,20 +6024,26 @@
                   <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.09</c:v>
+                  <c:v>99.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>99.09</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.05</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>99.089999999999989</c:v>
+                  <c:v>99.074000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000002-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5049,7 +6052,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ensemble_2classes!$E$2:$E$4</c:f>
+              <c:f>original_2classes!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5076,23 +6079,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -5102,7 +6105,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$E$5:$E$10</c:f>
+              <c:f>original_2classes!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5115,6 +6118,12 @@
                 <c:pt idx="2">
                   <c:v>98.21</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>98.21</c:v>
                 </c:pt>
@@ -5123,7 +6132,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F5BA-4867-8951-532E2EF147FA}"/>
+              <c16:uniqueId val="{00000003-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5416,30 +6425,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$9</c:f>
+              <c:f>original_2classes!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$C$5:$C$9</c:f>
+              <c:f>original_2classes!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5447,20 +6456,23 @@
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.83</c:v>
+                  <c:v>98.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.21</c:v>
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDB7-497D-88C7-7C7D178687C3}"/>
+              <c16:uniqueId val="{00000000-2C33-4929-A074-DD7DBACC21B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5482,30 +6494,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>ensemble_2classes!$A$5:$A$9</c:f>
+              <c:f>original_2classes!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ensemble_2classes!$E$5:$E$9</c:f>
+              <c:f>original_2classes!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5518,12 +6530,18 @@
                 <c:pt idx="2">
                   <c:v>98.21</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EDB7-497D-88C7-7C7D178687C3}"/>
+              <c16:uniqueId val="{00000001-2C33-4929-A074-DD7DBACC21B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5757,7 +6775,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$B$2:$B$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5784,7 +6802,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5810,7 +6828,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_2classes (2)'!$B$5:$B$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$B$5:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5826,15 +6844,18 @@
                 <c:pt idx="3" formatCode="General">
                   <c:v>99.09</c:v>
                 </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>99.042500000000018</c:v>
+                  <c:v>99.052000000000021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-11EE-4838-B269-37AF8969A067}"/>
+              <c16:uniqueId val="{00000000-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5843,7 +6864,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$C$2:$C$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5870,7 +6891,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5896,7 +6917,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_2classes (2)'!$C$5:$C$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5912,15 +6933,18 @@
                 <c:pt idx="3">
                   <c:v>98.21</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>98.114999999999995</c:v>
+                  <c:v>98.133999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-11EE-4838-B269-37AF8969A067}"/>
+              <c16:uniqueId val="{00000001-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5929,7 +6953,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$D$2:$D$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5956,7 +6980,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -5982,7 +7006,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_2classes (2)'!$D$5:$D$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5995,15 +7019,21 @@
                 <c:pt idx="2">
                   <c:v>99.09</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>99.089999999999989</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-11EE-4838-B269-37AF8969A067}"/>
+              <c16:uniqueId val="{00000002-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6012,7 +7042,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$E$2:$E$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6039,7 +7069,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_2classes (2)'!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -6065,7 +7095,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_2classes (2)'!$E$5:$E$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6078,6 +7108,12 @@
                 <c:pt idx="2">
                   <c:v>98.21</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
+                </c:pt>
                 <c:pt idx="5" formatCode="0.00">
                   <c:v>98.21</c:v>
                 </c:pt>
@@ -6086,7 +7122,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-11EE-4838-B269-37AF8969A067}"/>
+              <c16:uniqueId val="{00000003-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6431,10 +7467,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
@@ -6442,23 +7478,23 @@
         <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6468,7 +7504,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Without TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6481,7 +7517,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6494,7 +7530,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.17</cx:f>
               <cx:v>With TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6507,7 +7543,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6573,34 +7609,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6610,7 +7646,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>Without TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6623,7 +7659,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6636,7 +7672,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>With TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6649,7 +7685,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6715,7 +7751,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.35</cx:f>
@@ -6723,7 +7759,7 @@
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.37</cx:f>
@@ -6739,7 +7775,7 @@
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.41</cx:f>
@@ -6865,7 +7901,7 @@
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.43</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.49</cx:f>
@@ -6881,7 +7917,7 @@
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.53</cx:f>
@@ -6934,6 +7970,148 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.52</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
+          <cx:axisId val="1"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:catScaling/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+  <cx:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+  </cx:spPr>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.57</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.59</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.61</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.55</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.63</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.56</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.65</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:v>Without TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.60</cx:f>
+              <cx:v>Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.62</cx:f>
+              <cx:v>With TPE F1 Score</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="0"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.64</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7235,6 +8413,126 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10999,6 +12297,1457 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -15086,14 +17835,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>323851</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -15360,14 +18109,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -15530,6 +18279,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295277</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15795,8 +18681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16074,10 +18960,664 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="C5" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="D5" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="E5" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="46">
+        <v>96.71</v>
+      </c>
+      <c r="C6" s="3">
+        <v>93.63</v>
+      </c>
+      <c r="D6" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="E6" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="C7" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="E7" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="C8" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="E8" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="C9" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="D9" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="E9" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <f>AVERAGE(B5:B9)</f>
+        <v>96.933999999999997</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>94.054000000000002</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>96.99</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="46">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <f>AVERAGE(B5:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f>AVERAGE(D5:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <f>AVERAGE(E5:E9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16344,12 +19884,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16405,16 +19945,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>98.21</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>98.21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -16422,16 +19962,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="46">
-        <v>0</v>
+        <v>98.9</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>97.83</v>
       </c>
       <c r="D6" s="3">
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>98.21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -16439,35 +19979,51 @@
         <v>27</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>98.21</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>98.21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C8" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98.21</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C9" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="D9" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="E9" s="3">
+        <v>98.21</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -16475,19 +20031,19 @@
       </c>
       <c r="B10" s="5">
         <f>AVERAGE(B5:B9)</f>
-        <v>0</v>
+        <v>99.052000000000021</v>
       </c>
       <c r="C10" s="6">
         <f>AVERAGE(C5:C9)</f>
-        <v>0</v>
+        <v>98.133999999999986</v>
       </c>
       <c r="D10" s="5">
         <f>AVERAGE(D5:D9)</f>
-        <v>0</v>
+        <v>99.09</v>
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(E5:E9)</f>
-        <v>0</v>
+        <v>98.21</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -16625,323 +20181,18 @@
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
     </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3">
-        <v>99.09</v>
-      </c>
-      <c r="C5" s="3">
-        <v>98.21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>99.09</v>
-      </c>
-      <c r="E5" s="3">
-        <v>98.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="46">
-        <v>98.9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>97.83</v>
-      </c>
-      <c r="D6" s="3">
-        <v>99.09</v>
-      </c>
-      <c r="E6" s="3">
-        <v>98.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
-        <v>99.09</v>
-      </c>
-      <c r="C7" s="3">
-        <v>98.21</v>
-      </c>
-      <c r="D7" s="3">
-        <v>99.09</v>
-      </c>
-      <c r="E7" s="3">
-        <v>98.21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3">
-        <v>99.09</v>
-      </c>
-      <c r="C8" s="3">
-        <v>98.21</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <f>AVERAGE(B5:B9)</f>
-        <v>99.042500000000018</v>
-      </c>
-      <c r="C10" s="6">
-        <f>AVERAGE(C5:C9)</f>
-        <v>98.114999999999995</v>
-      </c>
-      <c r="D10" s="5">
-        <f>AVERAGE(D5:D9)</f>
-        <v>99.089999999999989</v>
-      </c>
-      <c r="E10" s="6">
-        <f>AVERAGE(E5:E9)</f>
-        <v>98.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A30:D30"/>
@@ -16968,12 +20219,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17029,16 +20280,16 @@
         <v>25</v>
       </c>
       <c r="B5" s="3">
-        <v>99.09</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
-        <v>98.21</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>99.09</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>98.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -17046,16 +20297,16 @@
         <v>26</v>
       </c>
       <c r="B6" s="46">
-        <v>98.9</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>97.83</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>99.09</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>98.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -17063,16 +20314,16 @@
         <v>27</v>
       </c>
       <c r="B7" s="3">
-        <v>99.09</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>98.21</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>99.09</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>98.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -17080,10 +20331,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="3">
-        <v>99.09</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>98.21</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -17103,19 +20354,19 @@
       </c>
       <c r="B10" s="5">
         <f>AVERAGE(B5:B9)</f>
-        <v>99.042500000000018</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6">
         <f>AVERAGE(C5:C9)</f>
-        <v>98.114999999999995</v>
+        <v>0</v>
       </c>
       <c r="D10" s="5">
         <f>AVERAGE(D5:D9)</f>
-        <v>99.089999999999989</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6">
         <f>AVERAGE(E5:E9)</f>
-        <v>98.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -17253,10 +20504,19 @@
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A22:D24"/>
     <mergeCell ref="A26:D26"/>

--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="original_3classes" sheetId="1" r:id="rId1"/>
     <sheet name="ensemble_3classes(soft)" sheetId="7" r:id="rId2"/>
-    <sheet name="ensemble_3classes(hard)" sheetId="9" r:id="rId3"/>
-    <sheet name="original_2classes" sheetId="5" r:id="rId4"/>
-    <sheet name="ensemble_2classes(soft)" sheetId="6" r:id="rId5"/>
-    <sheet name="ensemble_2classes(hard)" sheetId="8" r:id="rId6"/>
+    <sheet name="original_2classes" sheetId="5" r:id="rId3"/>
+    <sheet name="ensemble_2classes(soft)" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">original_3classes!$A$5:$A$10</definedName>
@@ -34,55 +32,31 @@
     <definedName name="_xlchart.v1.19" hidden="1">'ensemble_3classes(soft)'!$E$2:$E$4</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">original_3classes!$B$5:$B$10</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">'ensemble_3classes(soft)'!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'ensemble_3classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'ensemble_3classes(hard)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'ensemble_3classes(hard)'!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'ensemble_3classes(hard)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'ensemble_3classes(hard)'!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'ensemble_3classes(hard)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">original_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">original_2classes!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">original_2classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">original_2classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">original_2classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">original_2classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">original_2classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">original_2classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">original_2classes!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">original_3classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'ensemble_3classes(hard)'!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'ensemble_3classes(hard)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'ensemble_3classes(hard)'!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">original_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">original_2classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">original_2classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">original_2classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">original_2classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">original_2classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">original_2classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'ensemble_2classes(soft)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'ensemble_2classes(soft)'!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'ensemble_2classes(soft)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'ensemble_2classes(soft)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'ensemble_2classes(soft)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'ensemble_2classes(soft)'!$D$5:$D$10</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">original_3classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">original_2classes!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">original_2classes!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'ensemble_2classes(soft)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'ensemble_2classes(soft)'!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'ensemble_2classes(soft)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'ensemble_2classes(soft)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'ensemble_2classes(soft)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'ensemble_2classes(soft)'!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">original_3classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'ensemble_2classes(soft)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'ensemble_2classes(soft)'!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'ensemble_2classes(soft)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'ensemble_2classes(soft)'!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'ensemble_2classes(hard)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'ensemble_2classes(hard)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'ensemble_2classes(hard)'!$B$5:$B$10</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">original_3classes!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'ensemble_2classes(hard)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'ensemble_2classes(hard)'!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'ensemble_2classes(hard)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'ensemble_2classes(hard)'!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'ensemble_2classes(hard)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'ensemble_2classes(hard)'!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">original_3classes!$E$2:$E$4</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">original_3classes!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
@@ -92,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
   <si>
     <t>Classifier</t>
   </si>
@@ -421,12 +395,6 @@
   </si>
   <si>
     <t>Weighted Average Probabilities</t>
-  </si>
-  <si>
-    <t>Majority Class Labels</t>
-  </si>
-  <si>
-    <t>Weight = F1 Score</t>
   </si>
   <si>
     <t>Voter With Weight = F1 Score</t>
@@ -1908,1378 +1876,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Score</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Without TPE</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$A$5:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(soft)'!$C$5:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDB7-497D-88C7-7C7D178687C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>With TPE</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$A$5:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(soft)'!$E$5:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EDB7-497D-88C7-7C7D178687C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1632558751"/>
-        <c:axId val="1632564159"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1632558751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1632564159"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1632564159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1632558751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7136482939632549E-2"/>
-          <c:y val="4.0968354658676716E-2"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.60447384990215391"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Without TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F1 Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(hard)'!$B$5:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-11EE-4838-B269-37AF8969A067}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Without TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(hard)'!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-11EE-4838-B269-37AF8969A067}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$D$2:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>With TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F1 Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(hard)'!$D$5:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-11EE-4838-B269-37AF8969A067}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>With TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(hard)'!$E$5:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-11EE-4838-B269-37AF8969A067}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1746219184"/>
-        <c:axId val="1746213360"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1746219184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1746213360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1746213360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1746219184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Score</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Without TPE</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$A$5:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(hard)'!$C$5:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-85CE-4D07-9553-8836CF7F429D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>With TPE</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(hard)'!$A$5:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(hard)'!$E$5:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-85CE-4D07-9553-8836CF7F429D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1632558751"/>
-        <c:axId val="1632564159"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1632558751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1632564159"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1632564159"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1632558751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4831,7 +3427,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$B$2:$B$4</c:f>
+              <c:f>original_2classes!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4858,23 +3454,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -4884,28 +3480,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_3classes(hard)'!$B$5:$B$10</c:f>
+              <c:f>original_2classes!$B$5:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.11</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>97.664000000000016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE3E-4878-9DBA-B6F388A1FF22}"/>
+              <c16:uniqueId val="{00000000-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4914,7 +3516,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$C$2:$C$4</c:f>
+              <c:f>original_2classes!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4941,23 +3543,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -4967,28 +3569,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_3classes(hard)'!$C$5:$C$10</c:f>
+              <c:f>original_2classes!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>98.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.2</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>95.554000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE3E-4878-9DBA-B6F388A1FF22}"/>
+              <c16:uniqueId val="{00000001-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4997,7 +3605,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$D$2:$D$4</c:f>
+              <c:f>original_2classes!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5024,23 +3632,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -5050,28 +3658,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_3classes(hard)'!$D$5:$D$10</c:f>
+              <c:f>original_2classes!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>99.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.05</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>99.074000000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FE3E-4878-9DBA-B6F388A1FF22}"/>
+              <c16:uniqueId val="{00000002-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5080,7 +3694,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$E$2:$E$4</c:f>
+              <c:f>original_2classes!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5107,23 +3721,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$A$5:$A$10</c:f>
+              <c:f>original_2classes!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -5133,28 +3747,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_3classes(hard)'!$E$5:$E$10</c:f>
+              <c:f>original_2classes!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FE3E-4878-9DBA-B6F388A1FF22}"/>
+              <c16:uniqueId val="{00000003-E184-4EA7-A574-E89B603C50D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5447,48 +4067,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$A$5:$A$9</c:f>
+              <c:f>original_2classes!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_3classes(hard)'!$C$5:$C$9</c:f>
+              <c:f>original_2classes!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>98.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C28E-4314-B3B8-9FD9FBC5335F}"/>
+              <c16:uniqueId val="{00000000-2C33-4929-A074-DD7DBACC21B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5510,48 +4136,54 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'ensemble_3classes(hard)'!$A$5:$A$9</c:f>
+              <c:f>original_2classes!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Group1</c:v>
+                  <c:v>SVM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Group2</c:v>
+                  <c:v>KNN</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Group3</c:v>
+                  <c:v>RF</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Group4</c:v>
+                  <c:v>DT</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Group5</c:v>
+                  <c:v>GU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ensemble_3classes(hard)'!$E$5:$E$9</c:f>
+              <c:f>original_2classes!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C28E-4314-B3B8-9FD9FBC5335F}"/>
+              <c16:uniqueId val="{00000001-2C33-4929-A074-DD7DBACC21B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5785,7 +4417,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$B$2:$B$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$B$2:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5812,23 +4444,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -5838,34 +4470,34 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$B$5:$B$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$B$5:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="General">
                   <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
                   <c:v>99.09</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>97.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>93.11</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>97.664000000000016</c:v>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.052000000000021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000000-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5874,7 +4506,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$C$2:$C$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$C$2:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5901,23 +4533,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -5927,7 +4559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$C$5:$C$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$C$5:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5935,26 +4567,26 @@
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.11</c:v>
+                  <c:v>97.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.04</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.2</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>95.554000000000002</c:v>
+                  <c:v>98.133999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000001-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5963,7 +4595,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$D$2:$D$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5990,23 +4622,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -6016,7 +4648,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$D$5:$D$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$D$5:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6024,7 +4656,7 @@
                   <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.05</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>99.09</c:v>
@@ -6033,17 +4665,17 @@
                   <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99.05</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00">
-                  <c:v>99.074000000000012</c:v>
+                  <c:v>99.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000002-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6052,7 +4684,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>original_2classes!$E$2:$E$4</c:f>
+              <c:f>'ensemble_2classes(soft)'!$E$2:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6079,23 +4711,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Average</c:v>
@@ -6105,7 +4737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$E$5:$E$10</c:f>
+              <c:f>'ensemble_2classes(soft)'!$E$5:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6132,7 +4764,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E184-4EA7-A574-E89B603C50D6}"/>
+              <c16:uniqueId val="{00000003-F5BA-4867-8951-532E2EF147FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6425,30 +5057,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$9</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$C$5:$C$9</c:f>
+              <c:f>'ensemble_2classes(soft)'!$C$5:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6456,23 +5088,23 @@
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.11</c:v>
+                  <c:v>97.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.04</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.2</c:v>
+                  <c:v>98.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2C33-4929-A074-DD7DBACC21B3}"/>
+              <c16:uniqueId val="{00000000-EDB7-497D-88C7-7C7D178687C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6494,30 +5126,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>original_2classes!$A$5:$A$9</c:f>
+              <c:f>'ensemble_2classes(soft)'!$A$5:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>SVM</c:v>
+                  <c:v>Group1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KNN</c:v>
+                  <c:v>Group2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>RF</c:v>
+                  <c:v>Group3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DT</c:v>
+                  <c:v>Group4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GU</c:v>
+                  <c:v>Group5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>original_2classes!$E$5:$E$9</c:f>
+              <c:f>'ensemble_2classes(soft)'!$E$5:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6541,7 +5173,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2C33-4929-A074-DD7DBACC21B3}"/>
+              <c16:uniqueId val="{00000001-EDB7-497D-88C7-7C7D178687C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6735,587 +5367,6 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.7136482939632549E-2"/>
-          <c:y val="4.0968354658676716E-2"/>
-          <c:w val="0.90286351706036749"/>
-          <c:h val="0.60447384990215391"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$B$2:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Without TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F1 Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(soft)'!$B$5:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.9</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>99.052000000000021</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5BA-4867-8951-532E2EF147FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$C$2:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Without TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(soft)'!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>98.133999999999986</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5BA-4867-8951-532E2EF147FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$D$2:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>With TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>F1 Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(soft)'!$D$5:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>99.09</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>99.09</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5BA-4867-8951-532E2EF147FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$E$2:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100 Features</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>With TPE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ensemble_2classes(soft)'!$A$5:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Group1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Group2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Group3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Group4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Group5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Average</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ensemble_2classes(soft)'!$E$5:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98.21</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00">
-                  <c:v>98.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F5BA-4867-8951-532E2EF147FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1746219184"/>
-        <c:axId val="1746213360"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1746219184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1746213360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1746213360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1746219184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7609,10 +5660,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
@@ -7620,23 +5671,23 @@
         <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7646,7 +5697,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>Without TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7659,7 +5710,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7672,7 +5723,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:f>_xlchart.v1.26</cx:f>
               <cx:v>With TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7685,7 +5736,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.31</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7751,7 +5802,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.35</cx:f>
@@ -7767,7 +5818,7 @@
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.39</cx:f>
@@ -7775,7 +5826,7 @@
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
         <cx:f>_xlchart.v1.41</cx:f>
@@ -7828,290 +5879,6 @@
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.40</cx:f>
-              <cx:v>Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
-          <cx:axisId val="1"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:catScaling/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-  <cx:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.42</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.47</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.45</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.49</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.44</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.51</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.43</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.53</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.46</cx:f>
-              <cx:v>Without TPE F1 Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.48</cx:f>
-              <cx:v>Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.50</cx:f>
-              <cx:v>With TPE F1 Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.52</cx:f>
-              <cx:v>Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7B25994A-0EB2-481C-BFF0-8F6168C7DE50}" formatIdx="1">
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="1" uniqueId="{16ADC3E0-F456-42FD-A68A-7AE2E1E9E526}" formatIdx="3">
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{A467DA9E-BDE3-4613-B20D-7A988AC26ADA}" formatIdx="5">
-          <cx:axisId val="1"/>
-        </cx:series>
-        <cx:series layoutId="paretoLine" ownerIdx="3" uniqueId="{4F86D4E0-4B9F-4EF1-9E01-1B60D2D928B4}" formatIdx="7">
-          <cx:axisId val="1"/>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0" hidden="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="1" min="0"/>
-        <cx:units unit="percentage"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="2">
-        <cx:catScaling/>
-        <cx:tickLabels/>
-        <cx:txPr>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </cx:txPr>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-  <cx:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:solidFill>
-        <a:schemeClr val="accent1"/>
-      </a:solidFill>
-    </a:ln>
-  </cx:spPr>
-  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.57</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.54</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.61</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.55</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.63</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.56</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
-              <cx:v>Without TPE F1 Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.60</cx:f>
-              <cx:v>Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.62</cx:f>
-              <cx:v>With TPE F1 Score</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:aggregation/>
-          </cx:layoutPr>
-          <cx:axisId val="0"/>
-        </cx:series>
-        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8293,246 +6060,6 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10344,2908 +7871,6 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:lumOff val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:lumOff val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17972,14 +12597,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -18109,143 +12734,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -18256,143 +12744,6 @@
       <xdr:colOff>323851</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Chart 2"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295277</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18681,8 +13032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18953,7 +13304,7 @@
     <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -18962,8 +13313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19257,7 +13608,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -19294,325 +13645,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="46">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <f>AVERAGE(B5:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <f>AVERAGE(C5:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <f>AVERAGE(D5:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <f>AVERAGE(E5:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -19884,11 +13916,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -20183,7 +14215,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -20217,327 +14249,4 @@
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="19"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="46">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <f>AVERAGE(B5:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <f>AVERAGE(C5:C9)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <f>AVERAGE(D5:D9)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <f>AVERAGE(E5:E9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A12:D12"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/results/compare_original_with_tpe.csv.xlsx
+++ b/results/compare_original_with_tpe.csv.xlsx
@@ -9,52 +9,48 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="original_3classes" sheetId="1" r:id="rId1"/>
     <sheet name="ensemble_3classes(soft)" sheetId="7" r:id="rId2"/>
     <sheet name="original_2classes" sheetId="5" r:id="rId3"/>
     <sheet name="ensemble_2classes(soft)" sheetId="6" r:id="rId4"/>
+    <sheet name="Original2_3cl" sheetId="8" r:id="rId5"/>
+    <sheet name="Ensemble2_3cl" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">original_3classes!$A$5:$A$10</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">original_3classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'ensemble_3classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'ensemble_3classes(soft)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'ensemble_3classes(soft)'!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'ensemble_3classes(soft)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'ensemble_3classes(soft)'!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'ensemble_3classes(soft)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'ensemble_3classes(soft)'!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'ensemble_3classes(soft)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'ensemble_3classes(soft)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'ensemble_3classes(soft)'!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'ensemble_3classes(soft)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'ensemble_3classes(soft)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'ensemble_3classes(soft)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'ensemble_3classes(soft)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'ensemble_3classes(soft)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'ensemble_3classes(soft)'!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">original_2classes!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">original_2classes!$B$2:$B$4</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">original_3classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'ensemble_3classes(soft)'!$E$5:$E$10</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">original_2classes!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">original_2classes!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">original_2classes!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">original_2classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">original_2classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">original_2classes!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">original_2classes!$D$5:$D$10</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">original_2classes!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">original_2classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">original_2classes!$B$5:$B$10</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">original_2classes!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">original_2classes!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">original_2classes!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">original_2classes!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">original_2classes!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">original_2classes!$E$5:$E$10</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'ensemble_2classes(soft)'!$B$2:$B$4</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'ensemble_2classes(soft)'!$B$5:$B$10</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">original_3classes!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'ensemble_2classes(soft)'!$A$5:$A$10</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'ensemble_2classes(soft)'!$B$2:$B$4</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'ensemble_2classes(soft)'!$B$5:$B$10</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'ensemble_2classes(soft)'!$C$2:$C$4</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'ensemble_2classes(soft)'!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'ensemble_2classes(soft)'!$D$2:$D$4</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'ensemble_2classes(soft)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'ensemble_2classes(soft)'!$C$2:$C$4</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'ensemble_2classes(soft)'!$C$5:$C$10</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'ensemble_2classes(soft)'!$D$2:$D$4</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'ensemble_2classes(soft)'!$D$5:$D$10</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'ensemble_2classes(soft)'!$E$2:$E$4</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'ensemble_2classes(soft)'!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">original_3classes!$C$5:$C$10</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'ensemble_2classes(soft)'!$E$2:$E$4</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'ensemble_2classes(soft)'!$E$5:$E$10</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">original_3classes!$D$2:$D$4</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">original_3classes!$D$5:$D$10</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">original_3classes!$E$2:$E$4</definedName>
@@ -66,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="41">
   <si>
     <t>Classifier</t>
   </si>
@@ -398,6 +394,18 @@
   </si>
   <si>
     <t>Voter With Weight = F1 Score</t>
+  </si>
+  <si>
+    <t>2 Class</t>
+  </si>
+  <si>
+    <t>3 Class</t>
+  </si>
+  <si>
+    <t>Emotion 2 Class</t>
+  </si>
+  <si>
+    <t>Emotion 3 Class</t>
   </si>
 </sst>
 </file>
@@ -735,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1058,6 +1066,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1103,7 +1146,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,6 +1166,15 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1130,6 +1182,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,15 +1262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1234,8 +1286,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1812,7 +1873,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,6 +1936,2915 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D949-44DB-A8FB-6BCF3209200D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D949-44DB-A8FB-6BCF3209200D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D949-44DB-A8FB-6BCF3209200D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D949-44DB-A8FB-6BCF3209200D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>93.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D949-44DB-A8FB-6BCF3209200D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97.664000000000016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.115999999999985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.561999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.074000000000012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.783999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D949-44DB-A8FB-6BCF3209200D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054749616"/>
+        <c:axId val="2054752112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054749616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054752112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054752112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054749616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C6F-45B4-901B-A86137E4467D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.71</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>93.63</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C6F-45B4-901B-A86137E4467D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C6F-45B4-901B-A86137E4467D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C6F-45B4-901B-A86137E4467D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C6F-45B4-901B-A86137E4467D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.052000000000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.933999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.133999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.054000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7C6F-45B4-901B-A86137E4467D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="61799392"/>
+        <c:axId val="61801888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="61799392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61801888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="61801888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61799392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39E9-40D1-B611-644BB35799DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.71</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>97.83</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>93.63</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39E9-40D1-B611-644BB35799DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-39E9-40D1-B611-644BB35799DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-39E9-40D1-B611-644BB35799DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Group5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-39E9-40D1-B611-644BB35799DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2054748368"/>
+        <c:axId val="2054752944"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ensemble2_3cl!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Ensemble2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Ensemble2_3cl!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.052000000000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.933999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.133999999999986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.054000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-39E9-40D1-B611-644BB35799DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2054748368"/>
+        <c:axId val="2054752944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054748368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054752944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054752944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054748368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1916,7 +4885,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2008,7 +4976,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2135,7 +5102,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2337,7 +5303,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2918,7 +5883,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3022,7 +5986,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3327,7 +6290,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3908,7 +6870,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4012,7 +6973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4317,7 +7277,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4898,7 +7857,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5002,7 +7960,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5307,7 +8264,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5367,6 +8323,957 @@
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69AC-426C-B3BD-49D5F2EABBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69AC-426C-B3BD-49D5F2EABBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69AC-426C-B3BD-49D5F2EABBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-69AC-426C-B3BD-49D5F2EABBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>93.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-69AC-426C-B3BD-49D5F2EABBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2050318016"/>
+        <c:axId val="2050311776"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Original2_3cl!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Original2_3cl!$B$1:$I$4</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2 Class</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3 Class</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>F1 Score</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Score</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Without TPE</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>With TPE</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Original2_3cl!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>97.664000000000016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.115999999999985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.561999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.074000000000012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.783999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-69AC-426C-B3BD-49D5F2EABBE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2050318016"/>
+        <c:axId val="2050311776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2050318016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050311776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2050311776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050318016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5518,10 +9425,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
@@ -5529,23 +9436,23 @@
         <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5555,7 +9462,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Without TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5568,7 +9475,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5581,7 +9488,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>With TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5594,7 +9501,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5660,34 +9567,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.24</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5697,7 +9604,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.19</cx:f>
               <cx:v>Without TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5710,7 +9617,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5723,7 +9630,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.23</cx:f>
               <cx:v>With TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5736,7 +9643,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.25</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5802,34 +9709,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.30</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.37</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.39</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.41</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5839,7 +9746,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{5F459AFA-6E3F-4023-AA9F-90FE88A4C82D}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>Without TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5852,7 +9759,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{8B310CD7-9FA5-4A2D-A231-807626F3136E}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5865,7 +9772,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{151B0F3A-9959-4AD3-9E45-8E7A76FDFB76}" formatIdx="4">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>With TPE F1 Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5878,7 +9785,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{E0F8580D-B94A-499B-B066-8C89CFE1CFAD}" formatIdx="6">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.40</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Score</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6060,6 +9967,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7871,6 +11938,2044 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12767,6 +18872,136 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13032,45 +19267,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -13191,99 +19426,99 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -13314,44 +19549,44 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -13386,7 +19621,7 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="11">
         <v>96.71</v>
       </c>
       <c r="C6" s="3">
@@ -13472,147 +19707,147 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -13625,11 +19860,6 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -13637,6 +19867,11 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13648,45 +19883,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -13807,91 +20042,91 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -13920,45 +20155,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -13993,7 +20228,7 @@
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="11">
         <v>98.9</v>
       </c>
       <c r="C6" s="3">
@@ -14079,147 +20314,147 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -14249,4 +20484,826 @@
   <pageSetup scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C5" s="3">
+        <v>96.13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>92.55</v>
+      </c>
+      <c r="F5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G5" s="3">
+        <v>96.13</v>
+      </c>
+      <c r="H5" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>92.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>99.05</v>
+      </c>
+      <c r="C6" s="3">
+        <v>96.85</v>
+      </c>
+      <c r="D6" s="3">
+        <v>98.11</v>
+      </c>
+      <c r="E6" s="3">
+        <v>93.89</v>
+      </c>
+      <c r="F6" s="3">
+        <v>99.05</v>
+      </c>
+      <c r="G6" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H6" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I6" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C7" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="D7" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G7" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H7" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I7" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>97.98</v>
+      </c>
+      <c r="C8" s="3">
+        <v>93.76</v>
+      </c>
+      <c r="D8" s="3">
+        <v>96.04</v>
+      </c>
+      <c r="E8" s="3">
+        <v>88.32</v>
+      </c>
+      <c r="F8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G8" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H8" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I8" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>93.11</v>
+      </c>
+      <c r="C9" s="3">
+        <v>96.85</v>
+      </c>
+      <c r="D9" s="3">
+        <v>87.2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>93.89</v>
+      </c>
+      <c r="F9" s="3">
+        <v>99.05</v>
+      </c>
+      <c r="G9" s="3">
+        <v>96.85</v>
+      </c>
+      <c r="H9" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I9" s="3">
+        <v>93.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" ref="B10:I10" si="0">AVERAGE(B5:B9)</f>
+        <v>97.664000000000016</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>96.115999999999985</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>95.554000000000002</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>92.561999999999998</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>99.074000000000012</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>96.79</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>98.21</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>93.783999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="F18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="F19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="F20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="51"/>
+      <c r="B4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C5" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="D5" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G5" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H5" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
+        <v>98.9</v>
+      </c>
+      <c r="C6" s="11">
+        <v>96.71</v>
+      </c>
+      <c r="D6" s="3">
+        <v>97.83</v>
+      </c>
+      <c r="E6" s="3">
+        <v>93.63</v>
+      </c>
+      <c r="F6" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G6" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H6" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I6" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C7" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="D7" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G7" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H7" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I7" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C8" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="D8" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G8" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H8" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I8" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="C9" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="D9" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="E9" s="3">
+        <v>94.16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>99.09</v>
+      </c>
+      <c r="G9" s="3">
+        <v>96.99</v>
+      </c>
+      <c r="H9" s="3">
+        <v>98.21</v>
+      </c>
+      <c r="I9" s="3">
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" ref="B10:I10" si="0">AVERAGE(B5:B9)</f>
+        <v>99.052000000000021</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>96.933999999999997</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>98.133999999999986</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>94.054000000000002</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>99.09</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>96.99</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>98.21</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>94.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="F18" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="F19" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="F20" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="A22:D24"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F20:I20"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="95" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>